--- a/Deliverable #1/5. Configuration Management Plan/iNFT Version Tracker.xlsx
+++ b/Deliverable #1/5. Configuration Management Plan/iNFT Version Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jason Howse\Documents\College\Masters Classes\CSC478 - Software Engineering Capstone\Group Project Information and Assignments\Project Documentation\Deliverable #1\5. Configuration Management Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD23454-5A69-499A-83C2-D2F80BBF34E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4887174E-AFEC-42B2-95EF-79C567581C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="2070" windowWidth="9450" windowHeight="13005" xr2:uid="{05D81643-9DA8-4C36-AF37-5DF490DD3FCA}"/>
+    <workbookView xWindow="-13068" yWindow="-10380" windowWidth="13176" windowHeight="23256" xr2:uid="{05D81643-9DA8-4C36-AF37-5DF490DD3FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,13 +163,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,132 +503,132 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Deliverable #1/5. Configuration Management Plan/iNFT Version Tracker.xlsx
+++ b/Deliverable #1/5. Configuration Management Plan/iNFT Version Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jason Howse\Documents\College\Masters Classes\CSC478 - Software Engineering Capstone\Group Project Information and Assignments\Project Documentation\Deliverable #1\5. Configuration Management Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4887174E-AFEC-42B2-95EF-79C567581C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9501CF-6C64-44B0-8403-5EA7DD2A7B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13068" yWindow="-10380" windowWidth="13176" windowHeight="23256" xr2:uid="{05D81643-9DA8-4C36-AF37-5DF490DD3FCA}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>1.0.1</t>
   </si>
   <si>
-    <t>polling to live update the combo box after mint timing</t>
-  </si>
-  <si>
     <t>Implementation of the NFT minting process</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Formating of the IPFS pin</t>
+  </si>
+  <si>
+    <t>polling to live update the combo box after mint timing and releasing the production web app</t>
   </si>
 </sst>
 </file>
@@ -503,13 +503,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -538,7 +538,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -554,34 +554,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -597,23 +597,23 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -626,10 +626,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
